--- a/technoterburndownchart.xlsx
+++ b/technoterburndownchart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[CAMPUS]\[BAHANKULIAH]\[IV]\[TKPPL][AXA]\technoter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[CAMPUS]\[BAHANKULIAH]\[IV]\[TKPPL][AXA]\[TUGASBESAR]\technoter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,15 +41,6 @@
     <t>Pengumpulan Requirements</t>
   </si>
   <si>
-    <t>Pengumpulan user requirements</t>
-  </si>
-  <si>
-    <t>Pengumpulan system requirements</t>
-  </si>
-  <si>
-    <t>Pengumpulan functional requirements</t>
-  </si>
-  <si>
     <t>Pembuatan Design</t>
   </si>
   <si>
@@ -102,6 +93,15 @@
   </si>
   <si>
     <t>Prediction</t>
+  </si>
+  <si>
+    <t>Pengumpulan user requirements dan pembuatan slide</t>
+  </si>
+  <si>
+    <t>Pengumpulan system requirements dan pembuatan slide</t>
+  </si>
+  <si>
+    <t>Pengumpulan functional requirements dan pembuatan slide</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3</c:v>
@@ -632,11 +632,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="287722808"/>
-        <c:axId val="287723984"/>
+        <c:axId val="256320152"/>
+        <c:axId val="256320544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="287722808"/>
+        <c:axId val="256320152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +678,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287723984"/>
+        <c:crossAx val="256320544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287723984"/>
+        <c:axId val="256320544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +736,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287722808"/>
+        <c:crossAx val="256320152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1668,14 +1668,14 @@
   <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41" style="3" customWidth="1"/>
+    <col min="3" max="3" width="59.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
     <col min="5" max="14" width="13.5703125" style="1" customWidth="1"/>
     <col min="15" max="16" width="13.5703125" style="3" customWidth="1"/>
@@ -1713,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="8">
         <v>41804</v>
@@ -1754,13 +1754,13 @@
     </row>
     <row r="5" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>6</v>
@@ -1775,7 +1775,9 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="O5" s="2">
+        <v>2</v>
+      </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
@@ -1784,7 +1786,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
         <v>6</v>
@@ -1799,7 +1801,9 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="O6" s="2">
+        <v>2</v>
+      </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
@@ -1808,7 +1812,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -1823,7 +1827,9 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="O7" s="2">
+        <v>2</v>
+      </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
@@ -1850,13 +1856,13 @@
     </row>
     <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D9" s="2">
         <v>8</v>
@@ -1880,7 +1886,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
         <v>12</v>
@@ -1904,7 +1910,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>8</v>
@@ -1944,13 +1950,13 @@
     </row>
     <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2">
         <v>6</v>
@@ -1974,7 +1980,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2">
         <v>8</v>
@@ -1998,7 +2004,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2">
         <v>6</v>
@@ -2038,13 +2044,13 @@
     </row>
     <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -2068,7 +2074,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -2110,7 +2116,7 @@
     </row>
     <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2169,7 +2175,7 @@
     </row>
     <row r="21" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2219,7 +2225,7 @@
       </c>
       <c r="O21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="1"/>

--- a/technoterburndownchart.xlsx
+++ b/technoterburndownchart.xlsx
@@ -610,7 +610,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6</c:v>
@@ -632,11 +632,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="256320152"/>
-        <c:axId val="256320544"/>
+        <c:axId val="255052448"/>
+        <c:axId val="255057544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="256320152"/>
+        <c:axId val="255052448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +678,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256320544"/>
+        <c:crossAx val="255057544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256320544"/>
+        <c:axId val="255057544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +736,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256320152"/>
+        <c:crossAx val="255052448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1774,7 +1774,9 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="N5" s="2">
+        <v>3</v>
+      </c>
       <c r="O5" s="2">
         <v>2</v>
       </c>
@@ -1800,7 +1802,9 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2">
+        <v>3</v>
+      </c>
       <c r="O6" s="2">
         <v>2</v>
       </c>
@@ -1826,7 +1830,9 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="N7" s="2">
+        <v>3</v>
+      </c>
       <c r="O7" s="2">
         <v>2</v>
       </c>
@@ -1876,8 +1882,12 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
       <c r="P9" s="2">
         <v>0</v>
       </c>
@@ -1900,8 +1910,12 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
       <c r="P10" s="2">
         <v>0</v>
       </c>
@@ -1924,8 +1938,12 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
       <c r="P11" s="2">
         <v>0</v>
       </c>
@@ -1970,8 +1988,12 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="N13" s="2">
+        <v>2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
       <c r="P13" s="2">
         <v>0</v>
       </c>
@@ -1994,8 +2016,12 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
       <c r="P14" s="2">
         <v>0</v>
       </c>
@@ -2018,8 +2044,12 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
       <c r="P15" s="2">
         <v>0</v>
       </c>
@@ -2064,8 +2094,12 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
       <c r="P17" s="2">
         <v>0</v>
       </c>
@@ -2088,8 +2122,12 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
       <c r="P18" s="2">
         <v>0</v>
       </c>
@@ -2221,7 +2259,7 @@
       </c>
       <c r="N21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="1"/>

--- a/technoterburndownchart.xlsx
+++ b/technoterburndownchart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[CAMPUS]\[BAHANKULIAH]\[IV]\[TKPPL][AXA]\[TUGASBESAR]\technoter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan\technoter_TKPPL-utama-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,9 +62,6 @@
     <t>ScrumMaster1_David</t>
   </si>
   <si>
-    <t>ScrumMaster2_</t>
-  </si>
-  <si>
     <t>ScrumMaster3_</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Pengumpulan functional requirements dan pembuatan slide</t>
+  </si>
+  <si>
+    <t>ScrumMaster2_Johan</t>
   </si>
 </sst>
 </file>
@@ -607,7 +607,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>11</c:v>
@@ -632,11 +632,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="255052448"/>
-        <c:axId val="255057544"/>
+        <c:axId val="230482224"/>
+        <c:axId val="230482616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="255052448"/>
+        <c:axId val="230482224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +678,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255057544"/>
+        <c:crossAx val="230482616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255057544"/>
+        <c:axId val="230482616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +736,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255052448"/>
+        <c:crossAx val="230482224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1713,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="8">
         <v>41804</v>
@@ -1760,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>6</v>
@@ -1788,7 +1788,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>6</v>
@@ -1816,7 +1816,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>5</v>
@@ -1881,7 +1881,9 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2">
+        <v>2</v>
+      </c>
       <c r="N9" s="2">
         <v>0</v>
       </c>
@@ -1909,7 +1911,9 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2">
+        <v>3</v>
+      </c>
       <c r="N10" s="2">
         <v>0</v>
       </c>
@@ -1937,7 +1941,9 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2">
+        <v>2</v>
+      </c>
       <c r="N11" s="2">
         <v>0</v>
       </c>
@@ -1968,13 +1974,13 @@
     </row>
     <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2">
         <v>6</v>
@@ -2002,7 +2008,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2">
         <v>8</v>
@@ -2030,7 +2036,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2">
         <v>6</v>
@@ -2074,13 +2080,13 @@
     </row>
     <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -2108,7 +2114,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -2255,7 +2261,7 @@
       </c>
       <c r="M21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="1"/>

--- a/technoterburndownchart.xlsx
+++ b/technoterburndownchart.xlsx
@@ -56,9 +56,6 @@
     <t>Prototype tampilan menu</t>
   </si>
   <si>
-    <t>Diagram Alur Kerja</t>
-  </si>
-  <si>
     <t>ScrumMaster1_David</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>ScrumMaster2_Johan</t>
+  </si>
+  <si>
+    <t>System Engineering</t>
   </si>
 </sst>
 </file>
@@ -632,11 +632,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="230482224"/>
-        <c:axId val="230482616"/>
+        <c:axId val="271527920"/>
+        <c:axId val="271525176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="230482224"/>
+        <c:axId val="271527920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +678,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230482616"/>
+        <c:crossAx val="271525176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="230482616"/>
+        <c:axId val="271525176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +736,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230482224"/>
+        <c:crossAx val="271527920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1713,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="8">
         <v>41804</v>
@@ -1754,13 +1754,13 @@
     </row>
     <row r="5" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
         <v>6</v>
@@ -1788,7 +1788,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
         <v>6</v>
@@ -1816,7 +1816,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>5</v>
@@ -1928,7 +1928,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>8</v>
@@ -1974,13 +1974,13 @@
     </row>
     <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2">
         <v>6</v>
@@ -2008,7 +2008,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2">
         <v>8</v>
@@ -2036,7 +2036,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2">
         <v>6</v>
@@ -2080,13 +2080,13 @@
     </row>
     <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -2114,7 +2114,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>

--- a/technoterburndownchart.xlsx
+++ b/technoterburndownchart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan\technoter_TKPPL-utama-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[CAMPUS]\[BAHANKULIAH]\[IV]\[TKPPL][AXA]\[TUGASBESAR]\technoter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -583,34 +583,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6</c:v>
@@ -632,11 +632,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="271527920"/>
-        <c:axId val="271525176"/>
+        <c:axId val="263568200"/>
+        <c:axId val="263572120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="271527920"/>
+        <c:axId val="263568200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +678,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271525176"/>
+        <c:crossAx val="263572120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271525176"/>
+        <c:axId val="263572120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +736,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271527920"/>
+        <c:crossAx val="263568200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1773,12 +1773,14 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
       <c r="N5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
@@ -1801,12 +1803,14 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
       <c r="N6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
@@ -1829,12 +1833,14 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
       <c r="N7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
@@ -1942,7 +1948,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -1993,9 +1999,11 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
       <c r="N13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -2021,7 +2029,9 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
       <c r="N14" s="2">
         <v>0</v>
       </c>
@@ -2049,7 +2059,9 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
       <c r="N15" s="2">
         <v>0</v>
       </c>
@@ -2099,7 +2111,9 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
       <c r="N17" s="2">
         <v>0</v>
       </c>
@@ -2127,7 +2141,9 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
       <c r="N18" s="2">
         <v>0</v>
       </c>
@@ -2228,51 +2244,51 @@
         <v>69</v>
       </c>
       <c r="E21" s="2">
-        <f>(SUM(E17:E18)+SUM(E13:E15)+SUM(E9:E11)+SUM(E5:E7))</f>
-        <v>0</v>
+        <f t="shared" ref="E21:N21" si="1">(SUM(E17:E18)+SUM(E13:E15)+SUM(E9:E11)+SUM(E5:E7))+F21</f>
+        <v>19</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" ref="F21:P21" si="1">(SUM(F17:F18)+SUM(F13:F15)+SUM(F9:F11)+SUM(F5:F7))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="1"/>
+        <f>(SUM(O17:O18)+SUM(O13:O15)+SUM(O9:O11)+SUM(O5:O7))+P21</f>
         <v>6</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F21:P21" si="2">(SUM(P17:P18)+SUM(P13:P15)+SUM(P9:P11)+SUM(P5:P7))</f>
         <v>3</v>
       </c>
     </row>

--- a/technoterburndownchart.xlsx
+++ b/technoterburndownchart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[CAMPUS]\[BAHANKULIAH]\[IV]\[TKPPL][AXA]\[TUGASBESAR]\technoter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan\technoter_TKPPL-utama-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -456,37 +456,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>63.25</c:v>
+                  <c:v>65.083333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.5</c:v>
+                  <c:v>59.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.75</c:v>
+                  <c:v>53.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46</c:v>
+                  <c:v>47.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.25</c:v>
+                  <c:v>41.416666666666671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.5</c:v>
+                  <c:v>35.500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.75</c:v>
+                  <c:v>29.583333333333339</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>23.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.25</c:v>
+                  <c:v>17.750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.5</c:v>
+                  <c:v>11.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.75</c:v>
+                  <c:v>5.9166666666666687</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -583,31 +583,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>13</c:v>
@@ -632,11 +632,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="263568200"/>
-        <c:axId val="263572120"/>
+        <c:axId val="269818496"/>
+        <c:axId val="269823200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="263568200"/>
+        <c:axId val="269818496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +678,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263572120"/>
+        <c:crossAx val="269823200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263572120"/>
+        <c:axId val="269823200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +736,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263568200"/>
+        <c:crossAx val="269818496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1763,7 +1763,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1772,7 +1772,9 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
@@ -1793,7 +1795,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1802,7 +1804,9 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
@@ -1823,7 +1827,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1832,7 +1836,9 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
@@ -1877,7 +1883,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1886,7 +1892,9 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
       <c r="M9" s="2">
         <v>2</v>
       </c>
@@ -1907,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1916,9 +1924,11 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2">
+        <v>2</v>
+      </c>
       <c r="M10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -1937,7 +1947,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1946,7 +1956,9 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2">
+        <v>2</v>
+      </c>
       <c r="M11" s="2">
         <v>1</v>
       </c>
@@ -1989,7 +2001,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1998,7 +2010,9 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
@@ -2019,7 +2033,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2028,7 +2042,9 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
@@ -2049,7 +2065,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2058,7 +2074,9 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
@@ -2101,7 +2119,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2110,7 +2128,9 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
@@ -2131,7 +2151,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2140,7 +2160,9 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
@@ -2182,51 +2204,51 @@
       <c r="C20" s="10"/>
       <c r="D20" s="2">
         <f>(SUM(D17:D18)+SUM(D13:D15)+SUM(D9:D11)+SUM(D5:D7))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E20" s="2">
         <f>D20-$D$20/12</f>
-        <v>63.25</v>
+        <v>65.083333333333329</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ref="F20:P20" si="0">E20-$D$20/12</f>
-        <v>57.5</v>
+        <v>59.166666666666664</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="0"/>
-        <v>51.75</v>
+        <v>53.25</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>47.333333333333336</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="0"/>
-        <v>40.25</v>
+        <v>41.416666666666671</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>34.5</v>
+        <v>35.500000000000007</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="0"/>
-        <v>28.75</v>
+        <v>29.583333333333339</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>23.666666666666671</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="0"/>
-        <v>17.25</v>
+        <v>17.750000000000004</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>11.833333333333336</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="0"/>
-        <v>5.75</v>
+        <v>5.9166666666666687</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="0"/>
@@ -2241,43 +2263,43 @@
       <c r="C21" s="10"/>
       <c r="D21" s="2">
         <f>D20</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ref="E21:N21" si="1">(SUM(E17:E18)+SUM(E13:E15)+SUM(E9:E11)+SUM(E5:E7))+F21</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="1"/>
@@ -2288,7 +2310,7 @@
         <v>6</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" ref="F21:P21" si="2">(SUM(P17:P18)+SUM(P13:P15)+SUM(P9:P11)+SUM(P5:P7))</f>
+        <f t="shared" ref="P21" si="2">(SUM(P17:P18)+SUM(P13:P15)+SUM(P9:P11)+SUM(P5:P7))</f>
         <v>3</v>
       </c>
     </row>

--- a/technoterburndownchart.xlsx
+++ b/technoterburndownchart.xlsx
@@ -583,25 +583,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>24</c:v>
@@ -632,11 +632,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="269818496"/>
-        <c:axId val="269823200"/>
+        <c:axId val="234281160"/>
+        <c:axId val="234278416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="269818496"/>
+        <c:axId val="234281160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +678,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269823200"/>
+        <c:crossAx val="234278416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269823200"/>
+        <c:axId val="234278416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +736,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269818496"/>
+        <c:crossAx val="234281160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1771,7 +1771,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
       <c r="L5" s="2">
         <v>0</v>
       </c>
@@ -1803,7 +1805,9 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
       <c r="L6" s="2">
         <v>0</v>
       </c>
@@ -1835,7 +1839,9 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
       <c r="L7" s="2">
         <v>0</v>
       </c>
@@ -1891,7 +1897,9 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
       <c r="L9" s="2">
         <v>2</v>
       </c>
@@ -1923,7 +1931,9 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>0.5</v>
+      </c>
       <c r="L10" s="2">
         <v>2</v>
       </c>
@@ -1955,7 +1965,9 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>3</v>
+      </c>
       <c r="L11" s="2">
         <v>2</v>
       </c>
@@ -2009,7 +2021,9 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
@@ -2041,7 +2055,9 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
@@ -2073,7 +2089,9 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
@@ -2127,7 +2145,9 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2">
+        <v>0.5</v>
+      </c>
       <c r="L17" s="2">
         <v>0</v>
       </c>
@@ -2159,7 +2179,9 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
       <c r="L18" s="2">
         <v>0</v>
       </c>
@@ -2267,31 +2289,31 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" ref="E21:N21" si="1">(SUM(E17:E18)+SUM(E13:E15)+SUM(E9:E11)+SUM(E5:E7))+F21</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="1"/>

--- a/technoterburndownchart.xlsx
+++ b/technoterburndownchart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan\technoter_TKPPL-utama-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PramaDaeli\Documents\GitHub\technoter_PramaDaeli\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -583,22 +583,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>30</c:v>
@@ -632,11 +632,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="234281160"/>
-        <c:axId val="234278416"/>
+        <c:axId val="264264280"/>
+        <c:axId val="264262320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="234281160"/>
+        <c:axId val="264264280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +678,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234278416"/>
+        <c:crossAx val="264262320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234278416"/>
+        <c:axId val="264262320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +736,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234281160"/>
+        <c:crossAx val="264264280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1770,7 +1770,9 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
@@ -1804,7 +1806,9 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
@@ -1838,7 +1842,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
@@ -1896,7 +1902,9 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
       <c r="K9" s="2">
         <v>2</v>
       </c>
@@ -1930,7 +1938,9 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
       <c r="K10" s="2">
         <v>0.5</v>
       </c>
@@ -1964,7 +1974,9 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
       <c r="K11" s="2">
         <v>3</v>
       </c>
@@ -2020,7 +2032,9 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
@@ -2054,7 +2068,9 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
@@ -2088,7 +2104,9 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2">
+        <v>3</v>
+      </c>
       <c r="K15" s="2">
         <v>0</v>
       </c>
@@ -2144,7 +2162,9 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
       <c r="K17" s="2">
         <v>0.5</v>
       </c>
@@ -2178,7 +2198,9 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
       <c r="K18" s="2">
         <v>0</v>
       </c>
@@ -2289,27 +2311,27 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" ref="E21:N21" si="1">(SUM(E17:E18)+SUM(E13:E15)+SUM(E9:E11)+SUM(E5:E7))+F21</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>

--- a/technoterburndownchart.xlsx
+++ b/technoterburndownchart.xlsx
@@ -583,19 +583,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>36</c:v>
@@ -632,11 +632,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="264264280"/>
-        <c:axId val="264262320"/>
+        <c:axId val="259788568"/>
+        <c:axId val="259784648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="264264280"/>
+        <c:axId val="259788568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +678,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264262320"/>
+        <c:crossAx val="259784648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="264262320"/>
+        <c:axId val="259784648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +736,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264264280"/>
+        <c:crossAx val="259788568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1769,7 +1769,9 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
@@ -1805,7 +1807,9 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
@@ -1841,7 +1845,9 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
@@ -1901,7 +1907,9 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
@@ -1937,7 +1945,9 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
@@ -1973,7 +1983,9 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
@@ -2031,7 +2043,9 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
@@ -2067,7 +2081,9 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
       <c r="J14" s="2">
         <v>2</v>
       </c>
@@ -2103,7 +2119,9 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
       <c r="J15" s="2">
         <v>3</v>
       </c>
@@ -2161,7 +2179,9 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
@@ -2197,7 +2217,9 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
@@ -2311,23 +2333,23 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" ref="E21:N21" si="1">(SUM(E17:E18)+SUM(E13:E15)+SUM(E9:E11)+SUM(E5:E7))+F21</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="1"/>

--- a/technoterburndownchart.xlsx
+++ b/technoterburndownchart.xlsx
@@ -65,21 +65,9 @@
     <t>ScrumMaster4_</t>
   </si>
   <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Graphic</t>
-  </si>
-  <si>
     <t>Mempercantik Slide</t>
   </si>
   <si>
-    <t>Pembuatan Slide index.jade</t>
-  </si>
-  <si>
     <t>Stylus</t>
   </si>
   <si>
@@ -102,6 +90,18 @@
   </si>
   <si>
     <t>System Engineering</t>
+  </si>
+  <si>
+    <t>experiment menggunakan branch</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Johan</t>
+  </si>
+  <si>
+    <t>Janward</t>
   </si>
 </sst>
 </file>
@@ -583,16 +583,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>42</c:v>
@@ -632,11 +632,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="259788568"/>
-        <c:axId val="259784648"/>
+        <c:axId val="275360984"/>
+        <c:axId val="276496360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259788568"/>
+        <c:axId val="275360984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +678,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259784648"/>
+        <c:crossAx val="276496360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259784648"/>
+        <c:axId val="276496360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +736,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259788568"/>
+        <c:crossAx val="275360984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1667,14 +1667,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="59.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
     <col min="5" max="14" width="13.5703125" style="1" customWidth="1"/>
@@ -1713,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" s="8">
         <v>41804</v>
@@ -1760,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -1798,7 +1798,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -1836,7 +1836,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>5</v>
@@ -1974,7 +1974,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
         <v>6</v>
@@ -2031,10 +2031,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
         <v>8</v>
@@ -2042,12 +2042,14 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
       <c r="I13" s="2">
         <v>2</v>
       </c>
       <c r="J13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -2072,7 +2074,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2">
         <v>10</v>
@@ -2080,7 +2082,9 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
       <c r="I14" s="2">
         <v>2</v>
       </c>
@@ -2110,7 +2114,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2">
         <v>8</v>
@@ -2118,12 +2122,14 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
       <c r="I15" s="2">
         <v>2</v>
       </c>
       <c r="J15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -2167,10 +2173,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2">
         <v>8</v>
@@ -2208,7 +2214,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2">
         <v>6</v>
@@ -2333,19 +2339,19 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" ref="E21:N21" si="1">(SUM(E17:E18)+SUM(E13:E15)+SUM(E9:E11)+SUM(E5:E7))+F21</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="1"/>

--- a/technoterburndownchart.xlsx
+++ b/technoterburndownchart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PramaDaeli\Documents\GitHub\technoter_PramaDaeli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepna Angel U . S\Documents\GitHub\UTAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -583,13 +583,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>48</c:v>
@@ -632,11 +632,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="275360984"/>
-        <c:axId val="276496360"/>
+        <c:axId val="313877960"/>
+        <c:axId val="313873256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="275360984"/>
+        <c:axId val="313877960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +678,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276496360"/>
+        <c:crossAx val="313873256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="276496360"/>
+        <c:axId val="313873256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +736,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275360984"/>
+        <c:crossAx val="313877960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1768,7 +1768,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
@@ -1806,7 +1808,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
@@ -1844,7 +1848,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
@@ -1906,7 +1912,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
@@ -1944,7 +1952,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
@@ -1982,7 +1992,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
@@ -2183,8 +2195,12 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
@@ -2221,8 +2237,12 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="2">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
@@ -2339,15 +2359,15 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" ref="E21:N21" si="1">(SUM(E17:E18)+SUM(E13:E15)+SUM(E9:E11)+SUM(E5:E7))+F21</f>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="1"/>

--- a/technoterburndownchart.xlsx
+++ b/technoterburndownchart.xlsx
@@ -583,10 +583,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>53</c:v>
@@ -632,11 +632,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="313877960"/>
-        <c:axId val="313873256"/>
+        <c:axId val="343381808"/>
+        <c:axId val="343381416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="313877960"/>
+        <c:axId val="343381808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +678,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313873256"/>
+        <c:crossAx val="343381416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313873256"/>
+        <c:axId val="343381416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +736,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313877960"/>
+        <c:crossAx val="343381808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2194,7 +2194,9 @@
         <v>8</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>4</v>
+      </c>
       <c r="G17" s="2">
         <v>2</v>
       </c>
@@ -2236,7 +2238,9 @@
         <v>6</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
       <c r="G18" s="2">
         <v>3</v>
       </c>
@@ -2359,11 +2363,11 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" ref="E21:N21" si="1">(SUM(E17:E18)+SUM(E13:E15)+SUM(E9:E11)+SUM(E5:E7))+F21</f>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>

--- a/technoterburndownchart.xlsx
+++ b/technoterburndownchart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepna Angel U . S\Documents\GitHub\UTAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[CAMPUS]\[BAHANKULIAH]\[IV]\[TKPPL][AXA]\[TUGASBESAR]\technoter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -583,7 +583,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>60</c:v>
@@ -632,11 +632,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="343381808"/>
-        <c:axId val="343381416"/>
+        <c:axId val="256143648"/>
+        <c:axId val="256145216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="343381808"/>
+        <c:axId val="256143648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +678,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343381416"/>
+        <c:crossAx val="256145216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343381416"/>
+        <c:axId val="256145216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +736,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343381808"/>
+        <c:crossAx val="256143648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1679,7 +1679,9 @@
     <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
     <col min="5" max="14" width="13.5703125" style="1" customWidth="1"/>
     <col min="15" max="16" width="13.5703125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="17.7109375" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1765,9 +1767,15 @@
       <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
@@ -1805,9 +1813,15 @@
       <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
@@ -1845,9 +1859,15 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
@@ -1909,9 +1929,15 @@
       <c r="D9" s="2">
         <v>6</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
@@ -1949,9 +1975,15 @@
       <c r="D10" s="2">
         <v>7</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
@@ -1989,9 +2021,15 @@
       <c r="D11" s="2">
         <v>6</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
@@ -2051,9 +2089,15 @@
       <c r="D13" s="2">
         <v>8</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
       <c r="H13" s="2">
         <v>2</v>
       </c>
@@ -2091,9 +2135,15 @@
       <c r="D14" s="2">
         <v>10</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
       <c r="H14" s="2">
         <v>2</v>
       </c>
@@ -2131,9 +2181,15 @@
       <c r="D15" s="2">
         <v>8</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
       <c r="H15" s="2">
         <v>2</v>
       </c>
@@ -2193,7 +2249,9 @@
       <c r="D17" s="2">
         <v>8</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
       <c r="F17" s="2">
         <v>4</v>
       </c>
@@ -2237,7 +2295,9 @@
       <c r="D18" s="2">
         <v>6</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
       <c r="F18" s="2">
         <v>3</v>
       </c>
@@ -2363,7 +2423,7 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" ref="E21:N21" si="1">(SUM(E17:E18)+SUM(E13:E15)+SUM(E9:E11)+SUM(E5:E7))+F21</f>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
